--- a/11_util/totalcmd python/A3_Excel Automaiton/YanSoo_Spec.xlsx
+++ b/11_util/totalcmd python/A3_Excel Automaiton/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Program Files\totalcmd\ini\02_python\02_양수시험 AqtSolver Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC91A8D-C9B8-43CF-9829-5603B7387FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0CB91-EE21-4724-9E47-452326008F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40710" yWindow="1935" windowWidth="30600" windowHeight="19665" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
